--- a/Maga4Sem/НИР/Для сдачи/Результаты тестов методов дискретного логарифмирования.xlsx
+++ b/Maga4Sem/НИР/Для сдачи/Результаты тестов методов дискретного логарифмирования.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitaly.gusev\Desktop\Универ\Bachelor_course\Maga4Sem\НИР\Для сдачи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31257B62-DBCA-4DCE-B637-8E9D2562B369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC463379-1A8E-4733-A0C3-B74B22F1C4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6975" yWindow="2580" windowWidth="16170" windowHeight="10178" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3986,13 +3986,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1186298.3999999999</c:v>
+                  <c:v>308.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114644.3</c:v>
+                  <c:v>4424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168803.1</c:v>
+                  <c:v>14803.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4393,13 +4393,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>238429210.5</c:v>
+                  <c:v>1185210.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2389343819.6999998</c:v>
+                  <c:v>178085915.19999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1275431915.2</c:v>
+                  <c:v>121695915.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12237,8 +12237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12554,7 +12554,7 @@
         <v>622.9</v>
       </c>
       <c r="D91" s="2">
-        <v>1186298.3999999999</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -12563,7 +12563,7 @@
         <v>1709321.6</v>
       </c>
       <c r="H91" s="2">
-        <v>238429210.5</v>
+        <v>1185210.5</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="28.9" x14ac:dyDescent="0.5">
@@ -12574,7 +12574,7 @@
         <v>11463.9</v>
       </c>
       <c r="D92" s="2">
-        <v>114644.3</v>
+        <v>4424</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -12583,7 +12583,7 @@
         <v>238934381.59999999</v>
       </c>
       <c r="H92" s="2">
-        <v>2389343819.6999998</v>
+        <v>178085915.19999999</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="28.9" x14ac:dyDescent="0.5">
@@ -12594,7 +12594,7 @@
         <v>16879.8</v>
       </c>
       <c r="D93" s="2">
-        <v>168803.1</v>
+        <v>14803.1</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>6</v>
@@ -12603,7 +12603,7 @@
         <v>127543191.2</v>
       </c>
       <c r="H93" s="2">
-        <v>1275431915.2</v>
+        <v>121695915.2</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.45">
